--- a/outputs-HGR-r202/o__Bacteroidales.xlsx
+++ b/outputs-HGR-r202/o__Bacteroidales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q205"/>
+  <dimension ref="A1:R205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -634,6 +644,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -691,6 +706,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -748,6 +768,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -805,6 +830,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -862,6 +892,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -919,6 +954,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -976,6 +1016,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1033,6 +1078,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1090,6 +1140,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1147,6 +1202,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1204,6 +1264,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1261,6 +1326,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1318,6 +1388,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1375,6 +1450,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1432,6 +1512,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1489,6 +1574,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1546,6 +1636,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1603,6 +1698,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1660,6 +1760,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1717,6 +1822,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1774,6 +1884,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1831,6 +1946,11 @@
           <t>f__Tannerellaceae</t>
         </is>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1888,6 +2008,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1945,6 +2070,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2002,6 +2132,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2059,6 +2194,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2116,6 +2256,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2173,6 +2318,11 @@
           <t>f__Marinifilaceae</t>
         </is>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>f__Marinifilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2230,6 +2380,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2287,6 +2442,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2344,6 +2504,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2401,6 +2566,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2458,6 +2628,11 @@
           <t>f__Marinifilaceae</t>
         </is>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>f__Marinifilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2515,6 +2690,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2572,6 +2752,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2629,6 +2814,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2686,6 +2876,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2743,6 +2938,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2800,6 +3000,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2857,6 +3062,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2914,6 +3124,11 @@
           <t>f__Marinifilaceae</t>
         </is>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>f__Marinifilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2971,6 +3186,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3028,6 +3248,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3085,6 +3310,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3142,6 +3372,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3199,6 +3434,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3256,6 +3496,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3313,6 +3558,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3370,6 +3620,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3427,6 +3682,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3484,6 +3744,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3541,6 +3806,11 @@
           <t>f__Marinifilaceae</t>
         </is>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>f__Marinifilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3598,6 +3868,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3655,6 +3930,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3712,6 +3992,11 @@
           <t>f__Tannerellaceae</t>
         </is>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3769,6 +4054,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3826,6 +4116,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3883,6 +4178,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3940,6 +4240,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3997,6 +4302,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4054,6 +4364,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4111,6 +4426,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4168,6 +4488,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -4225,6 +4550,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -4282,6 +4612,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -4339,6 +4674,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -4396,6 +4736,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -4453,6 +4798,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -4510,6 +4860,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -4567,6 +4922,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4624,6 +4984,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4681,6 +5046,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4738,6 +5108,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4795,6 +5170,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4852,6 +5232,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4909,6 +5294,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4966,6 +5356,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -5023,6 +5418,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -5080,6 +5480,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -5137,6 +5542,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -5194,6 +5604,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -5251,6 +5666,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -5308,6 +5728,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -5365,6 +5790,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -5422,6 +5852,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -5479,6 +5914,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -5536,6 +5976,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -5593,6 +6038,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -5650,6 +6100,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -5707,6 +6162,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -5764,6 +6224,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -5821,6 +6286,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -5878,6 +6348,11 @@
           <t>f__Dysgonomonadaceae</t>
         </is>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -5935,6 +6410,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -5992,6 +6472,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -6049,6 +6534,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -6106,6 +6596,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -6163,6 +6658,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -6220,6 +6720,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -6277,6 +6782,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -6334,6 +6844,11 @@
           <t>f__Marinifilaceae</t>
         </is>
       </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>f__Marinifilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -6391,6 +6906,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -6448,6 +6968,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -6505,6 +7030,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -6562,6 +7092,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -6619,6 +7154,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -6676,6 +7216,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -6733,6 +7278,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -6790,6 +7340,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -6847,6 +7402,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -6904,6 +7464,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -6961,6 +7526,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -7018,6 +7588,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -7075,6 +7650,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -7132,6 +7712,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -7189,6 +7774,11 @@
           <t>f__Marinifilaceae</t>
         </is>
       </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>f__Marinifilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -7246,6 +7836,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -7303,6 +7898,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -7360,6 +7960,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -7417,6 +8022,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -7474,6 +8084,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -7531,6 +8146,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -7588,6 +8208,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -7645,6 +8270,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -7702,6 +8332,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -7759,6 +8394,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -7816,6 +8456,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -7873,6 +8518,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -7930,6 +8580,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -7987,6 +8642,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -8044,6 +8704,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -8101,6 +8766,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -8158,6 +8828,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -8215,6 +8890,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -8272,6 +8952,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -8329,6 +9014,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -8386,6 +9076,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -8443,6 +9138,11 @@
           <t>f__Tannerellaceae</t>
         </is>
       </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -8500,6 +9200,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -8557,6 +9262,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -8614,6 +9324,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -8671,6 +9386,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -8728,6 +9448,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -8785,6 +9510,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -8842,6 +9572,11 @@
           <t>f__Porphyromonadaceae</t>
         </is>
       </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -8899,6 +9634,11 @@
           <t>f__Porphyromonadaceae</t>
         </is>
       </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -8956,6 +9696,11 @@
           <t>f__Porphyromonadaceae</t>
         </is>
       </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -9013,6 +9758,11 @@
           <t>f__Porphyromonadaceae</t>
         </is>
       </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -9070,6 +9820,11 @@
           <t>f__Porphyromonadaceae</t>
         </is>
       </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -9127,6 +9882,11 @@
           <t>f__Porphyromonadaceae</t>
         </is>
       </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -9184,6 +9944,11 @@
           <t>f__Porphyromonadaceae</t>
         </is>
       </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -9241,6 +10006,11 @@
           <t>f__Porphyromonadaceae</t>
         </is>
       </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -9298,6 +10068,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -9355,6 +10130,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -9412,6 +10192,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -9469,6 +10254,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -9526,6 +10316,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -9583,6 +10378,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -9640,6 +10440,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -9697,6 +10502,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -9754,6 +10564,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -9811,6 +10626,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -9868,6 +10688,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -9925,6 +10750,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -9982,6 +10812,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -10039,6 +10874,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -10096,6 +10936,11 @@
           <t>f__Barnesiellaceae</t>
         </is>
       </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>f__Barnesiellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -10153,6 +10998,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -10210,6 +11060,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -10267,6 +11122,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -10324,6 +11184,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -10381,6 +11246,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -10438,6 +11308,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -10495,6 +11370,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -10552,6 +11432,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -10609,6 +11494,11 @@
           <t>f__Marinifilaceae</t>
         </is>
       </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>f__Marinifilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -10666,6 +11556,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -10723,6 +11618,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -10780,6 +11680,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -10837,6 +11742,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -10894,6 +11804,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -10951,6 +11866,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -11008,6 +11928,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -11065,6 +11990,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -11122,6 +12052,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -11179,6 +12114,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -11236,6 +12176,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -11293,6 +12238,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -11350,6 +12300,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -11407,6 +12362,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -11464,6 +12424,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -11521,6 +12486,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -11578,6 +12548,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -11635,6 +12610,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -11692,6 +12672,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -11749,6 +12734,11 @@
           <t>f__Marinifilaceae</t>
         </is>
       </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>f__Marinifilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -11806,6 +12796,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -11863,6 +12858,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -11920,6 +12920,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -11977,6 +12982,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>f__UBA11471(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -12034,6 +13044,11 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -12091,6 +13106,11 @@
           <t>f__UBA11471</t>
         </is>
       </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>f__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -12144,6 +13164,11 @@
         <v>0.9939814864517509</v>
       </c>
       <c r="Q205" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
         <is>
           <t>f__Muribaculaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Bacteroidales.xlsx
+++ b/outputs-HGR-r202/o__Bacteroidales.xlsx
@@ -708,7 +708,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>f__Tannerellaceae</t>
+          <t>f__Tannerellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__Muribaculaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>f__Tannerellaceae</t>
+          <t>f__Tannerellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__Muribaculaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12550,7 +12550,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -12736,7 +12736,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -12984,7 +12984,7 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13294,7 +13294,7 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -13542,7 +13542,7 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>f__Barnesiellaceae</t>
+          <t>f__Barnesiellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>f__Bacteroidaceae</t>
+          <t>f__Bacteroidaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>f__UBA11471</t>
+          <t>f__UBA11471(reject)</t>
         </is>
       </c>
     </row>
@@ -13852,7 +13852,7 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14286,7 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>f__Dysgonomonadaceae</t>
+          <t>f__Dysgonomonadaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>f__Marinifilaceae</t>
+          <t>f__Marinifilaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>f__Muribaculaceae</t>
+          <t>f__Muribaculaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>f__Tannerellaceae</t>
+          <t>f__Tannerellaceae(reject)</t>
         </is>
       </c>
     </row>
